--- a/C61/Sprint 3/Planification-S3.xlsx
+++ b/C61/Sprint 3/Planification-S3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnest\Desktop\Projet Synthèse\Phase 1 Projet\C61_1_CarlGenest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D838615-1F71-4515-899F-520B95E8907C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30F2CA3-5BF4-4413-B287-8AF2F5E894E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
   <si>
     <t>Numéro de la tâche</t>
   </si>
@@ -400,19 +400,49 @@
     <t>Terminés lors du Sprint 2</t>
   </si>
   <si>
-    <t>À venir</t>
-  </si>
-  <si>
     <t>Prévu: Tableau MatPlotLib</t>
   </si>
   <si>
-    <t>Rédaction de la liste des références et intégration de commentaires dans le code</t>
-  </si>
-  <si>
     <t>Rédaction d'un script pour le démarrage de la base de données PostGreSQL</t>
   </si>
   <si>
     <t>Intégration d'un tableau MatPlotLib</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport de projet</t>
+  </si>
+  <si>
+    <t>Rédaction du readme</t>
+  </si>
+  <si>
+    <t>Rédaction de la liste des références et intégration des références dans le code</t>
+  </si>
+  <si>
+    <t>Annulé</t>
+  </si>
+  <si>
+    <t>Maximum atteint</t>
+  </si>
+  <si>
+    <t>Omission des références de recherches exploratoires non utilisées</t>
+  </si>
+  <si>
+    <t>Plusieurs images ajoutées, instructions détaillées</t>
+  </si>
+  <si>
+    <t>Nettoyage du code</t>
+  </si>
+  <si>
+    <t>Classes à modifier, fichiers et tests à supprimer</t>
+  </si>
+  <si>
+    <t>Adaptation de la sauvegarde des requêtes pour les besoins de la remise</t>
+  </si>
+  <si>
+    <t>Vidéo</t>
+  </si>
+  <si>
+    <t>Script, Audio, Capture, Montage</t>
   </si>
 </sst>
 </file>
@@ -737,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -982,6 +1012,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,15 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,10 +1345,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="92"/>
+      <c r="C4" s="97"/>
     </row>
     <row r="5" spans="2:9" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2211,12 +2247,12 @@
     </row>
     <row r="4" spans="2:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
     </row>
     <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
@@ -2611,9 +2647,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F153ED8-81C7-4E5D-9B87-0BE2BC6B5E91}">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2628,18 +2664,18 @@
     <col min="7" max="7" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="31.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" ht="31.8" x14ac:dyDescent="0.5">
       <c r="C2" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="42"/>
       <c r="C5" s="43" t="s">
         <v>54</v>
@@ -2657,7 +2693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="47">
         <v>1</v>
       </c>
@@ -2677,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="31">
         <v>2</v>
       </c>
@@ -2697,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="31">
         <v>3</v>
       </c>
@@ -2717,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="31">
         <v>4</v>
       </c>
@@ -2728,7 +2764,7 @@
         <v>180</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="51">
         <v>0.5</v>
@@ -2737,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="53"/>
       <c r="C10" s="83"/>
       <c r="D10" s="32"/>
@@ -2745,8 +2781,8 @@
       <c r="F10" s="81"/>
       <c r="G10" s="91"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="55"/>
       <c r="C12" s="56" t="s">
         <v>55</v>
@@ -2759,47 +2795,103 @@
       </c>
       <c r="G12" s="84"/>
     </row>
-    <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.3">
       <c r="B13" s="31">
         <v>1</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="D13" s="47">
+        <v>30</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B14" s="31">
         <v>2</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="32">
+      <c r="D14" s="31">
+        <v>180</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="31">
         <v>3</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>120</v>
+      <c r="D15" s="31">
+        <v>60</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="31">
+        <v>4</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="31">
+        <v>30</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="31">
+        <v>5</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="31">
+        <v>30</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="31">
+        <v>6</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="31">
+        <v>180</v>
+      </c>
+      <c r="E18" s="96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="32">
+        <v>7</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
